--- a/assignment 4/all_estimated_items.xlsx
+++ b/assignment 4/all_estimated_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6052 Psychometric II/HUDM6052_Psychometic_II/assignment 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6EE2E397-789E-7A44-B067-C1C4B9524243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71A1355F-6FA3-764C-9F3A-B9C66171E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
@@ -650,18 +650,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,70 +1022,70 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L35"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1091,40 +1093,40 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C3" s="1">
         <v>-0.88124093937299997</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>1.07845854907562</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>-0.81553972185858303</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>1.3848895320691099</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="1">
         <v>-0.25041329507765597</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="1">
         <v>0.23835659756782701</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1132,40 +1134,40 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C4" s="1">
         <v>-1.7063386319221501</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.13512132147614</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>-1.5155815152761001</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>1.19802418141711</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="1">
         <v>-1.17023897942767</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="1">
         <v>0.19777916358640499</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1173,40 +1175,40 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C5" s="1">
         <v>-0.16222424795465701</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.3066606122147499</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>-0.145462909372125</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.5294673009175399</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="1">
         <v>8.0257653110650307E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="1">
         <v>9.5300936254724702E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1214,40 +1216,40 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C6" s="1">
         <v>-0.41238264708680999</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.30812761230456</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="1">
         <v>-0.34881336024748399</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>2.0951152671554798</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="1">
         <v>0.16995047044453099</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="1">
         <v>0.234948878794974</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1255,40 +1257,40 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C7" s="1">
         <v>1.10374607129581</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.627408547714705</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="1">
         <v>1.5560163019761499</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>2.2816847959762598</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="1">
         <v>1.4433120228887399</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="1">
         <v>0.18712519369233499</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1296,40 +1298,40 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C8" s="1">
         <v>-0.69600507977022097</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.35171018202411</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="1">
         <v>-0.56869412896535398</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>1.4282346315605301</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="1">
         <v>-0.43158929743077301</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="1">
         <v>5.9560126567969197E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1337,40 +1339,40 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C9" s="1">
         <v>-0.45657915860431197</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.04448963169181</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="1">
         <v>-0.43418056044056302</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>1.2473956511225499</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="1">
         <v>-8.0709449106195194E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="1">
         <v>0.140979719149677</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1378,40 +1380,40 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C10" s="1">
         <v>-0.56193781466319404</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.89696696039908697</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="1">
         <v>-0.58873165059964105</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.95097678762510496</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="1">
         <v>-0.39514198237276099</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="1">
         <v>7.0730308819856494E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1419,40 +1421,40 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C11" s="1">
         <v>-2.0893781683654802</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>1.4152299674639299</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="1">
         <v>-1.6086193316144399</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>1.4642154001510801</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="1">
         <v>-1.4429306352035101</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="1">
         <v>0.12927470123254101</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1460,40 +1462,40 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C12" s="1">
         <v>-0.66812043162800505</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>1.2429996661526601</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="1">
         <v>-0.57127559134102901</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1.9564187556828301</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="1">
         <v>9.1565572515938207E-2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="1">
         <v>0.29321689039416499</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1501,40 +1503,40 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.46954060467726499</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.85594778784323899</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="1">
         <v>0.51397666169981804</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>1.1297452487992901</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="1">
         <v>0.80205598861488703</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="1">
         <v>0.114282489106632</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1542,40 +1544,40 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C14" s="1">
         <v>-1.2117209983114501</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.53543688793162</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="1">
         <v>-0.90972002488408199</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>2.5462449042245101</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="1">
         <v>-0.20727966323153399</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="1">
         <v>0.35991514325990998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1583,40 +1585,40 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.55241934190125097</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.77483410587896495</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="1">
         <v>0.65464525489245196</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.88714986226009795</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="1">
         <v>0.81915963295016503</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="1">
         <v>5.9839432279805899E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1624,40 +1626,40 @@
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.49772805203910597</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.72605570151727306</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="1">
         <v>0.62449990839036995</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.858183277564189</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="1">
         <v>0.83833720427248304</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="1">
         <v>7.5242249630255803E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1665,40 +1667,40 @@
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C17" s="1">
         <v>-0.21632267994572099</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.82913534573084002</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="1">
         <v>-0.23719876619001801</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.94214258061491196</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="1">
         <v>2.7358898500978598E-2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="1">
         <v>8.9584797122677501E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1706,40 +1708,40 @@
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.71518371258687197</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.83706925538506205</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="1">
         <v>0.79532567240080698</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>1.2541062058808601</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="1">
         <v>1.0501744285579599</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="1">
         <v>0.12505374627694099</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1747,40 +1749,40 @@
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.76713028372487702</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>1.1072566017375201</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="1">
         <v>0.68846586521676301</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>1.25349601031215</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="1">
         <v>0.75742339865010799</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="1">
         <v>3.3998671720866E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1788,40 +1790,40 @@
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.29005206549475099</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.55127883438997705</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="1">
         <v>0.47503199712258098</v>
       </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>1.43158951429076</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="1">
         <v>1.3016088129698999</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="1">
         <v>0.296608118674619</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1829,40 +1831,40 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C21" s="1">
         <v>-4.2486747309419502E-3</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.60683330446063699</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="1">
         <v>1.1268174448523601E-2</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>3.4107706108676599</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="1">
         <v>1.1489333365925001</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="1">
         <v>0.40658913862419799</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1870,40 +1872,40 @@
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C22" s="1">
         <v>-0.25324719986181998</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.99025894966430805</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="1">
         <v>-0.249744979085227</v>
       </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>1.40147358310588</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="1">
         <v>0.29504767381080199</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="1">
         <v>0.21184322174164699</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1911,40 +1913,40 @@
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C23" s="1">
         <v>-8.4579393307963005E-2</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.68784460007602</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="1">
         <v>-9.8824579887844696E-2</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
         <v>1.42816513691267</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="1">
         <v>0.86306018923078498</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="1">
         <v>0.315696867825498</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1952,40 +1954,40 @@
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C24" s="1">
         <v>-5.1539391744138303E-2</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.98577570940583403</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="1">
         <v>-5.2826462232339902E-2</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
         <v>1.4595851421347801</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="1">
         <v>0.46006421989975799</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="1">
         <v>0.20194461556503501</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1993,40 +1995,40 @@
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C25" s="1">
         <v>-0.17003881109015601</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>1.2298580848676099</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="1">
         <v>-0.154861812873828</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
         <v>1.51670725698771</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="1">
         <v>0.132306872171053</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="1">
         <v>0.12164565887642199</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2034,40 +2036,40 @@
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.33206946320490899</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.89311019858162599</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="1">
         <v>0.35011469851914401</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
         <v>1.1765268977258401</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="1">
         <v>0.67222233247993202</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="1">
         <v>0.12475052113000699</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2075,40 +2077,40 @@
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C27" s="1">
         <v>-0.28225816667617998</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>1.4787652939265501</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="1">
         <v>-0.23213860250007401</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
         <v>1.7191197966751499</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="1">
         <v>-1.7827915385401401E-2</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="1">
         <v>9.4437770145314195E-2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2116,40 +2118,40 @@
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C28" s="1">
         <v>-2.5670973251685401E-2</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>1.9488188578066901</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="1">
         <v>-4.3819744288048301E-2</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
         <v>2.2596145419325602</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="1">
         <v>9.9921890134552896E-2</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="1">
         <v>5.8092536648469799E-2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2157,40 +2159,40 @@
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.11942194431072101</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>1.22864969192983</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="1">
         <v>9.1663609826742598E-2</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
         <v>1.92810887889589</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="1">
         <v>0.47630037790042001</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="1">
         <v>0.17333916437365199</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2198,40 +2200,40 @@
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C30" s="1">
         <v>1.25030993463607</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
         <v>0.72256144472137496</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="1">
         <v>1.56416591265706</v>
       </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
         <v>1.69910551344886</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="1">
         <v>1.5755181715462101</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="1">
         <v>0.15019183157639199</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2239,40 +2241,40 @@
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C31" s="1">
         <v>-0.476374360117298</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.83662193923077099</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="1">
         <v>-0.52228224306263304</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
         <v>1.5998188949974901</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="1">
         <v>0.48088758675907001</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="1">
         <v>0.349857233106799</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2280,40 +2282,40 @@
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.17640533040081899</v>
       </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
         <v>1.2835466394730899</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="1">
         <v>0.13368815873980799</v>
       </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
         <v>2.7899550833137798</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="1">
         <v>0.58210714184060997</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="1">
         <v>0.21682991289676301</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2321,40 +2323,40 @@
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C33" s="1">
         <v>0.165218196115379</v>
       </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
         <v>0.67781397620720296</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="1">
         <v>0.22900590334967799</v>
       </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
         <v>0.86303349952696795</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="1">
         <v>0.64545044553264197</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="1">
         <v>0.131102505582604</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2362,40 +2364,40 @@
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C34" s="1">
         <v>0.66713915720741801</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.35962259909239203</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="1">
         <v>1.5772562902396801</v>
       </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
         <v>1.47983478295035</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="1">
         <v>1.8991978200405299</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="1">
         <v>0.28772693200029398</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2403,40 +2405,40 @@
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6">
-        <v>0.96049799143986803</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="1">
+        <v>0.96049799143986803</v>
+      </c>
+      <c r="C35" s="1">
         <v>1.44931204141896</v>
       </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>1.0595606954251799</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="1">
         <v>1.3519749001510899</v>
       </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
         <v>1.6005451866281299</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="1">
         <v>1.3592610007900801</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="1">
         <v>6.9735143904770702E-2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="2">
         <v>1</v>
       </c>
     </row>

--- a/assignment 4/all_estimated_items.xlsx
+++ b/assignment 4/all_estimated_items.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6052 Psychometric II/HUDM6052_Psychometic_II/assignment 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71A1355F-6FA3-764C-9F3A-B9C66171E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F069EC77-D391-954F-8BC4-E3BB4B994887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="50840" yWindow="1640" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_estimated_items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>a</t>
   </si>
@@ -143,14 +156,17 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -650,9 +666,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -664,6 +680,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,79 +1035,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1131,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -1172,7 +1189,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1213,7 +1230,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1254,7 +1271,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -1295,7 +1312,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1336,7 +1353,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1377,7 +1394,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -1418,7 +1435,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
@@ -1459,7 +1476,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
@@ -1500,7 +1517,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
@@ -1541,7 +1558,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
@@ -1582,7 +1599,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
@@ -1623,7 +1640,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -1664,7 +1681,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -1705,7 +1722,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -1746,7 +1763,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -1787,7 +1804,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -1828,7 +1845,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1">
@@ -1869,7 +1886,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
@@ -1910,7 +1927,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
@@ -1951,7 +1968,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1">
@@ -1992,7 +2009,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
@@ -2033,7 +2050,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1">
@@ -2074,7 +2091,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
@@ -2115,7 +2132,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
@@ -2156,7 +2173,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
@@ -2197,7 +2214,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
@@ -2238,7 +2255,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1">
@@ -2279,7 +2296,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1">
@@ -2320,7 +2337,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
@@ -2361,7 +2378,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1">
@@ -2402,7 +2419,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
@@ -2440,6 +2457,17 @@
       </c>
       <c r="M35" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
+        <f>MIN(F3:F35)</f>
+        <v>0.35962259909239203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
